--- a/DOM_Banner/output/dept0721/Rebecca M Crocker_2023.xlsx
+++ b/DOM_Banner/output/dept0721/Rebecca M Crocker_2023.xlsx
@@ -739,22 +739,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Frontiers in clinical diabetes and healthcare</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S4210235460</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2673-6616</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/DOM_Banner/output/dept0721/Rebecca M Crocker_2023.xlsx
+++ b/DOM_Banner/output/dept0721/Rebecca M Crocker_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,707 +360,328 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Edgar A. Villavicencio, Adriana Maldonado, Rebecca M. Crocker, Yong Liang Guan, Chris Stallman, David O. Garcia</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4313494937</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Communicating PNPLA3 genetic risk status for NAFLD among Mexican-origin men</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5076820784", "https://openalex.org/A5068492148", "https://openalex.org/A5051128417", "https://openalex.org/A5080691471", "https://openalex.org/A5043538207", "https://openalex.org/A5016489670"), au_display_name = c("Edgar A. Villavicencio", "Adriana Maldonado", "Rebecca M. Crocker", "Yong Liang Guan", "Chris Stallman", "David O. Garcia"), au_orcid = c("https://orcid.org/0000-0002-5982-099X", "https://orcid.org/0000-0002-3483-1887", "https://orcid.org/0000-0002-5281-2831", 
-"https://orcid.org/0000-0002-9757-630X", NA, "https://orcid.org/0000-0001-6669-9457"), author_position = c("first", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Department of Health Promotion Sciences, Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, AZ, United States", "Department of Health Promotion Sciences, Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, AZ, United States", "Center for Border Health Disparities, Health Sciences, University of Arizona, Tucson, AZ, United States", 
-"Rollins School of Public Health, Emory University, Atlanta, GA, United States", "Genetic Counseling Graduate Program, University of Arizona, Tucson, AZ, United States", "Department of Health Promotion Sciences, Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, AZ, United States"), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I150468666", "https://openalex.org/I138006243", 
-"https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", "University of Arizona", "University of Arizona", "Emory University", "University of Arizona", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03czfpz43", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", "US", "US", "US", "US"), institution_type = c("education", 
-"education", "education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I150468666", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Introduction The burden of non-alcoholic fatty liver disease (NAFLD) continues to disproportionately impact under-resourced communities in the U.S., particularly Mexican-origin populations. Genetic polymorphisms such as the rs738409 C/G variant in patatin-like phospholipase domain-containing 3 ( PNPLA3 ) have been associated with higher prevalence of and progression along the NAFLD spectrum. This qualitative study conducted in the U.S. Southwest aimed to assess Mexican-origin men's experience receiving genetic testing for PNPLA3 risk carrier status. Methods Semi-structured interviews were conducted with 17 Mexican-origin men whose NAFLD status and genetic predisposition were determined as part of a previous cross-sectional study. The interview guide included questions exploring participants' insights on how genetic risk status was delivered, how the information influenced their motivation for lifestyle modification to reduce NAFLD risk, and any knowledge sharing that occurred with family members after learning of their PNPLA3 risk status. Interviews were conducted and audio recorded in English ( n = 6) and Spanish ( n = 11) and uploaded into NVivo software for data analysis and interpretation. Guided by the Health Belief Model, a thematic analysis approach was used to identify primary themes. Results Results highlighted men's preference for receiving this type of genetic risk information through a letter sent to their homes. General comprehension of PNPLA3 risk status was deemed high and most men stated sharing their genetic predisposition to NAFLD with their immediate family members. Participants also indicated that family and awareness of this genetic risk acted as primary motivators for implementing behavior changes (e.g., diet, physical activity) toward the prevention of more severe liver conditions. Discussion Findings from this qualitative study suggest the feasibility of communicating genetic risk for NAFLD among Mexican-origin men. Future strategies for the dissemination of genetic risk results among Mexican-origin individuals should consider familial and cultural appropriate strategies.</t>
+          <t>2023-01-04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-01-04</t>
+          <t>Frontiers in Public Health</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Frontiers in Public Health</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S2595931848</t>
+          <t>https://doi.org/10.3389/fpubh.2022.1090101</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2296-2565</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36684893</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.3389/fpubh.2022.1090101</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://www.frontiersin.org/articles/10.3389/fpubh.2022.1090101/pdf</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>cc-by</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://www.frontiersin.org/articles/10.3389/fpubh.2022.1090101/pdf</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>c(funder = "https://openalex.org/F4320337534", funder_display_name = "National Institute on Minority Health and Health Disparities")</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4313494937</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4313494937", doi = "https://doi.org/10.3389/fpubh.2022.1090101", pmid = "https://pubmed.ncbi.nlm.nih.gov/36684893")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3389/fpubh.2022.1090101</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1533707383", "https://openalex.org/W1979290264", "https://openalex.org/W2001593235", "https://openalex.org/W2005745646", "https://openalex.org/W2017511982", "https://openalex.org/W2019787601", "https://openalex.org/W2024771127", "https://openalex.org/W2031119940", "https://openalex.org/W2041635090", "https://openalex.org/W2064642814", "https://openalex.org/W2068778732", "https://openalex.org/W2105841983", "https://openalex.org/W2114870455", "https://openalex.org/W2141644367", 
-"https://openalex.org/W2146733861", "https://openalex.org/W2164389437", "https://openalex.org/W2170754611", "https://openalex.org/W2188996750", "https://openalex.org/W2204688218", "https://openalex.org/W2224220524", "https://openalex.org/W2564467149", "https://openalex.org/W2605654091", "https://openalex.org/W2734724639", "https://openalex.org/W2752840978", "https://openalex.org/W2760923698", "https://openalex.org/W2765391663", "https://openalex.org/W2767887007", "https://openalex.org/W2793544541", 
-"https://openalex.org/W2911737558", "https://openalex.org/W2912601359", "https://openalex.org/W2951150603", "https://openalex.org/W2952927053", "https://openalex.org/W3009821608", "https://openalex.org/W3015361084", "https://openalex.org/W3042024886", "https://openalex.org/W3125452656", "https://openalex.org/W3127641748", "https://openalex.org/W3183183661", "https://openalex.org/W4200566639", "https://openalex.org/W4210361492", "https://openalex.org/W4232488826", "https://openalex.org/W4280552835", 
-"https://openalex.org/W4281712646", "https://openalex.org/W4376596064")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2161374773", "https://openalex.org/W3207076912", "https://openalex.org/W2018982142", "https://openalex.org/W2417344453", "https://openalex.org/W4207019024", "https://openalex.org/W2067108324", "https://openalex.org/W2983896041", "https://openalex.org/W2734174289", "https://openalex.org/W2073039261", "https://openalex.org/W121042039")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Kelly Palmer, Rebecca M. Crocker, David G. Marrero, Tze-Woei Tan</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4365516039</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>A vicious cycle: employment challenges associated with diabetes foot ulcers in an economically marginalized Southwest US sample</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5034416620", "https://openalex.org/A5051128417", "https://openalex.org/A5062986955", "https://openalex.org/A5035904447"), au_display_name = c("Kelly Palmer", "Rebecca M. Crocker", "David G. Marrero", "Tze-Woei Tan"), au_orcid = c("https://orcid.org/0000-0002-4818-6030", "https://orcid.org/0000-0002-5281-2831", "https://orcid.org/0000-0003-2112-7812", NA), author_position = c("first", "middle", "middle", "last"), au_affiliation_raw = c("Department of Health Promotion Sciences, Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, AZ, United States", 
-"Department of Health Promotion Sciences, Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, AZ, United States", "Department of Health Promotion Sciences, Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, AZ, United States", "Department of Surgery, University of Arizona College of Medicine, Tucson, AZ, United States; Division of Vascular Surgery and Endovascular Therapy, Keck School of Medicine, University of Southern California, Los Angeles, CA, United States"
-), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I1174212"), institution_display_name = c("University of Arizona", "University of Arizona", "University of Arizona", "University of Southern California"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03taz7m60"), institution_country_code = c("US", "US", "US", "US"), institution_type = c("education", 
-"education", "education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I1174212"))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>To describe patients' reported employment challenges associated with diabetic foot ulcers (DFUs).Fifteen patients from under-resourced communities in Southern Arizona, with a history of DFUs and/or amputations, were recruited from a tertiary referral center from June 2020 to February 2021. Participants consented to an audio-recorded semi-structured phone interview. Interviews were transcribed and thematically analyzed using the Dedoose data analysis platform.Participants shared a common theme around the cyclic challenges of DFU prevention/management and employment. Those employed in manual labor-intensive jobs or jobs requiring them to be on their feet for long durations of time believed working conditions contributed to the development of their DFUs. Patients reported work incapacity due to declines in mobility and the need to offload for DFU management. Many expressed frustration and emotional distress related to these challenges noting that DFUs resulted in lower remuneration as medical expenses increased. Consequently, loss of income and/or medical insurance often hindered participants' ability to manage DFUs and subsequent complications.These data illuminate the vicious cycle of DFU and employment challenges that must be addressed through patient-centered prevention strategies. Healthcare providers should consider a person's contextual factors such as employment type to tailor treatment approaches. Employers should establish inclusive policies that support patients with DFUs returning to work through flexible working hours and adapted work tasks as needed. Policymakers can also mitigate employment challenges by implementing social programs that provide resources for employees who are unable to return to work in their former capacity.</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>Frontiers in clinical diabetes and healthcare</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Frontiers in clinical diabetes and healthcare</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4210235460</t>
+          <t>https://doi.org/10.3389/fcdhc.2023.1027578</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2673-6616</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37124466</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.3389/fcdhc.2023.1027578</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>https://www.frontiersin.org/articles/10.3389/fcdhc.2023.1027578/pdf</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>cc-by</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>https://www.frontiersin.org/articles/10.3389/fcdhc.2023.1027578/pdf</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>c(funder = "https://openalex.org/F4320337357", funder_display_name = "National Institute of Diabetes and Digestive and Kidney Diseases", award_id = "1K23DK122126")</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4365516039</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4365516039", doi = "https://doi.org/10.3389/fcdhc.2023.1027578", pmid = "https://pubmed.ncbi.nlm.nih.gov/37124466")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3389/fcdhc.2023.1027578</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1804338634", "https://openalex.org/W1978998045", "https://openalex.org/W1998731196", "https://openalex.org/W2001566296", "https://openalex.org/W2004281802", "https://openalex.org/W2034463349", "https://openalex.org/W2040111477", "https://openalex.org/W2112972371", "https://openalex.org/W2127407522", "https://openalex.org/W2156782167", "https://openalex.org/W2170466541", "https://openalex.org/W2198454761", "https://openalex.org/W2202835946", "https://openalex.org/W2255543134", 
-"https://openalex.org/W2626354203", "https://openalex.org/W2782759844", "https://openalex.org/W3081067094", "https://openalex.org/W3136967980", "https://openalex.org/W3164641856", "https://openalex.org/W4211066908", "https://openalex.org/W4220888958", "https://openalex.org/W4220928164", "https://openalex.org/W4290048789")</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2015078956", "https://openalex.org/W4225773843", "https://openalex.org/W1875380712", "https://openalex.org/W1902160994", "https://openalex.org/W3206512415", "https://openalex.org/W3205953821", "https://openalex.org/W1947232276", "https://openalex.org/W4312677897", "https://openalex.org/W4313476454", "https://openalex.org/W2789951812")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Maia Ingram, Karina R Duenas, Idolina Castro, Luis Vázquez, Rebecca M. Crocker, Emily K. Larson, Jill Guernsey de Zapien, Emma Torres, Scott C. Carvajal</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367626426</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>The Use of Qualitative Methods to Guide the Development of the Border Resilience Scale in a Participatory Research Study</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5069762160", "https://openalex.org/A5003899678", "https://openalex.org/A5038933492", "https://openalex.org/A5063170160", "https://openalex.org/A5051128417", "https://openalex.org/A5080404984", "https://openalex.org/A5052967902", "https://openalex.org/A5036375824", "https://openalex.org/A5016046329"), au_display_name = c("Maia Ingram", "Karina R Duenas", "Idolina Castro", "Luis Vázquez", "Rebecca M. Crocker", "Emily K. Larson", "Jill Guernsey de Zapien", "Emma Torres", 
-"Scott C. Carvajal"), au_orcid = c("https://orcid.org/0000-0002-6517-7697", "https://orcid.org/0000-0001-6916-1441", NA, NA, "https://orcid.org/0000-0002-5281-2831", NA, NA, "https://orcid.org/0000-0001-8333-4863", NA), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Arizona Prevention Research Center, Department of Health Promotion Sciences, Zuckerman College of Public Health, University of Arizona, Tucson, AZ 85724, USA", 
-"Arizona Prevention Research Center, Department of Health Promotion Sciences, Zuckerman College of Public Health, University of Arizona, Tucson, AZ 85724, USA", "Campesinos Sin Fronteras, Somerton, AZ 85350, USA", "Campesinos Sin Fronteras, Somerton, AZ 85350, USA", "Cancer Center, College of Medicine, University of Arizona, Tucson, AZ 85724, USA", "Arizona Prevention Research Center, Department of Health Promotion Sciences, Zuckerman College of Public Health, University of Arizona, Tucson, AZ 85724, USA", 
-"Arizona Prevention Research Center, Department of Health Promotion Sciences, Zuckerman College of Public Health, University of Arizona, Tucson, AZ 85724, USA", "Campesinos Sin Fronteras, Somerton, AZ 85350, USA", "Arizona Prevention Research Center, Department of Health Promotion Sciences, Zuckerman College of Public Health, University of Arizona, Tucson, AZ 85724, USA"), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I138006243", NA, NA, "https://openalex.org/I138006243", 
-"https://openalex.org/I138006243", "https://openalex.org/I138006243", NA, "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", "University of Arizona", NA, NA, "University of Arizona", "University of Arizona", "University of Arizona", NA, "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", NA, NA, "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", NA, "https://ror.org/03m2x1q45"
-), institution_country_code = c("US", "US", NA, NA, "US", "US", "US", NA, "US"), institution_type = c("education", "education", NA, NA, "education", "education", "education", NA, "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", NA, NA, "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-"https://openalex.org/I138006243, https://openalex.org/I3132585960", NA, "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>U.S.-Mexico border residents experience pervasive social and ecological stressors that contribute to a high burden of chronic disease. However, the border region is primarily composed of high-density Mexican-origin neighborhoods, a characteristic that is most commonly health-promoting. Understanding factors that contribute to border stress and resilience is essential to informing the effective design of community-level health promotion strategies. La Vida en La Frontera is a mixed-methods, participatory study designed to understand factors that may contribute to border resilience in San Luis, Arizona. The study's initial qualitative phase included interviews with 30 Mexican-origin adults exploring community perceptions of the border environment, cross-border ties, and health-related concepts. Border residents described the border as a Mexican enclave characterized by individuals with a common language and shared cultural values and perspectives. Positive characteristics related to living in proximity to Mexico included close extended family relationships, access to Mexican food and products, and access to more affordable health care and other services. Based on these findings, we co-designed the 9-item Border Resilience Scale that measures agreement with the psychosocial benefits of these border attributes. Pilot data with 60 residents suggest there are positive sociocultural attributes associated with living in border communities. Further research should test if they mitigate environmental stressors and contribute to a health-promoting environment for residents.</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>International Journal of Environmental Research and Public Health</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>International Journal of Environmental Research and Public Health</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://openalex.org/S15239247</t>
+          <t>https://doi.org/10.3390/ijerph20095703</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1660-4601</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37174221</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>https://doi.org/10.3390/ijerph20095703</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>https://www.mdpi.com/1660-4601/20/9/5703/pdf?version=1683339051</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>5703</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>5703</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>https://www.mdpi.com/1660-4601/20/9/5703/pdf?version=1683339051</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4367626426</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4367626426", doi = "https://doi.org/10.3390/ijerph20095703", pmid = "https://pubmed.ncbi.nlm.nih.gov/37174221")</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3390/ijerph20095703</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W873417055", "https://openalex.org/W1602976539", "https://openalex.org/W1972242256", "https://openalex.org/W1993968742", "https://openalex.org/W1995025250", "https://openalex.org/W2002688599", "https://openalex.org/W2018480670", "https://openalex.org/W2025116096", "https://openalex.org/W2043858346", "https://openalex.org/W2105982574", "https://openalex.org/W2106723960", "https://openalex.org/W2120408873", "https://openalex.org/W2139391425", "https://openalex.org/W2154085800", 
-"https://openalex.org/W2161352328", "https://openalex.org/W2164789410", "https://openalex.org/W2170735295", "https://openalex.org/W2291678689", "https://openalex.org/W2343592429", "https://openalex.org/W2406166005", "https://openalex.org/W2507315576", "https://openalex.org/W2547709799", "https://openalex.org/W2776699744", "https://openalex.org/W2796422363", "https://openalex.org/W2807940634", "https://openalex.org/W2995431192", "https://openalex.org/W3009379574", "https://openalex.org/W3081943114", 
-"https://openalex.org/W3167194301", "https://openalex.org/W4224211736", "https://openalex.org/W4242166166", "https://openalex.org/W4285008281", "https://openalex.org/W4313250805", "https://openalex.org/W4323041747")</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2055264341", "https://openalex.org/W3213529939", "https://openalex.org/W2965115351", "https://openalex.org/W2480207144", "https://openalex.org/W2071273244", "https://openalex.org/W2109679179", "https://openalex.org/W3030519144", "https://openalex.org/W3016378642", "https://openalex.org/W1590406068", "https://openalex.org/W2611532229")</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept0721/Rebecca M Crocker_2023.xlsx
+++ b/DOM_Banner/output/dept0721/Rebecca M Crocker_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Health Promotion Sciences, Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, AZ, United States; Department of Health Promotion Sciences, Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, AZ, United States; Center for Border Health Disparities, Health Sciences, University of Arizona, Tucson, AZ, United States; Rollins School of Public Health, Emory University, Atlanta, GA, United States; Genetic Counseling Graduate Program, University of Arizona, Tucson, AZ, United States; Department of Health Promotion Sciences, Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4313494937</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Communicating PNPLA3 genetic risk status for NAFLD among Mexican-origin men</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-01-04</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Frontiers in Public Health</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fpubh.2022.1090101</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36684893</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fpubh.2022.1090101</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Health Promotion Sciences, Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, AZ, United States; Department of Health Promotion Sciences, Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, AZ, United States; Department of Health Promotion Sciences, Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, AZ, United States; Department of Surgery, University of Arizona College of Medicine, Tucson, AZ, United States; Division of Vascular Surgery and Endovascular Therapy, Keck School of Medicine, University of Southern California, Los Angeles, CA, United States</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4365516039</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>A vicious cycle: employment challenges associated with diabetes foot ulcers in an economically marginalized Southwest US sample</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-04-14</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Frontiers in clinical diabetes and healthcare</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fcdhc.2023.1027578</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37124466</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fcdhc.2023.1027578</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Arizona Prevention Research Center, Department of Health Promotion Sciences, Zuckerman College of Public Health, University of Arizona, Tucson, AZ 85724, USA; Arizona Prevention Research Center, Department of Health Promotion Sciences, Zuckerman College of Public Health, University of Arizona, Tucson, AZ 85724, USA; Campesinos Sin Fronteras, Somerton, AZ 85350, USA; Campesinos Sin Fronteras, Somerton, AZ 85350, USA; Cancer Center, College of Medicine, University of Arizona, Tucson, AZ 85724, USA; Arizona Prevention Research Center, Department of Health Promotion Sciences, Zuckerman College of Public Health, University of Arizona, Tucson, AZ 85724, USA; Arizona Prevention Research Center, Department of Health Promotion Sciences, Zuckerman College of Public Health, University of Arizona, Tucson, AZ 85724, USA; Campesinos Sin Fronteras, Somerton, AZ 85350, USA; Arizona Prevention Research Center, Department of Health Promotion Sciences, Zuckerman College of Public Health, University of Arizona, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367626426</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>The Use of Qualitative Methods to Guide the Development of the Border Resilience Scale in a Participatory Research Study</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>International Journal of Environmental Research and Public Health</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/ijerph20095703</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37174221</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/ijerph20095703</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
